--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/86/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/86/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6946946946946947</v>
+        <v>0.9097909790979098</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.9669669669671</v>
+        <v>1260.06600660066</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04454454454454455</v>
+        <v>0.01405140514051405</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9009009009009009</v>
+        <v>0.1114111411141114</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1245.245245245245</v>
+        <v>1635.923592359236</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>621.6216216216217</v>
+        <v>407.5607560756076</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>305.3053053053054</v>
+        <v>931.6615661566157</v>
       </c>
     </row>
   </sheetData>
